--- a/data/trans_camb/P1427-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1427-Edad-trans_camb.xlsx
@@ -635,20 +635,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.006005755336106</v>
+        <v>-1.146734444991143</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.163829813413993</v>
+        <v>-1.129689424437273</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.5718127260805127</v>
+        <v>-0.632241248573108</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.2106325878531507</v>
+        <v>-0.2106065773697362</v>
       </c>
     </row>
     <row r="6">
@@ -666,13 +666,13 @@
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>3.334065806410146</v>
+        <v>3.703594368846964</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.348149228467729</v>
+        <v>1.594033015453442</v>
       </c>
     </row>
     <row r="7">
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3423194848747212</v>
+        <v>-0.3450519519343306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.024758474036169</v>
+        <v>-1.087038973649617</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1620941996990485</v>
+        <v>-0.1614145018278487</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.1600035548182021</v>
+        <v>-0.1601170480948757</v>
       </c>
     </row>
     <row r="12">
@@ -792,19 +792,19 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>2.488029384980287</v>
+        <v>2.769493762566048</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6981579073650918</v>
+        <v>0.5298188297958444</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3238574581231683</v>
+        <v>0.2578133575567969</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.161227303723979</v>
+        <v>1.257563392550637</v>
       </c>
     </row>
     <row r="13">
@@ -882,13 +882,13 @@
         <v>-0.1424008615717405</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.03067246335708386</v>
+        <v>-0.03067246335708373</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.3661797813080574</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.3092355507749601</v>
+        <v>-0.30923555077496</v>
       </c>
     </row>
     <row r="17">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.436479376795711</v>
+        <v>-1.441962700619638</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.435438176415591</v>
+        <v>-1.441508110604252</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9760719833620063</v>
+        <v>-1.267549026731764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9649483982265953</v>
+        <v>-1.113374852820127</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9138760331895583</v>
+        <v>-0.899953921967835</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.9368109826363833</v>
+        <v>-0.9166762221964763</v>
       </c>
     </row>
     <row r="18">
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1542667027882255</v>
+        <v>-0.1492231588799467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.1540817690651608</v>
+        <v>-0.1499325758732284</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4018347880171967</v>
+        <v>0.3864782265652161</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5974652507195332</v>
+        <v>0.5182104701742631</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02090202859160093</v>
+        <v>-0.009611594726318938</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05056157877057781</v>
+        <v>0.05911610879100655</v>
       </c>
     </row>
     <row r="19">
@@ -960,13 +960,13 @@
         <v>-0.3477973539661422</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.07491388378884814</v>
+        <v>-0.07491388378884783</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.7339393836443588</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.619805246280822</v>
+        <v>-0.6198052462808219</v>
       </c>
     </row>
     <row r="20">
@@ -999,10 +999,10 @@
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>1.183783552312952</v>
+        <v>0.8045332689717954</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.331286116471051</v>
+        <v>0.8245995350110054</v>
       </c>
     </row>
     <row r="22">
@@ -1020,7 +1020,7 @@
         <v>-0.3908550162818356</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7080823970133914</v>
+        <v>0.7080823970133912</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.02750850722807088</v>
@@ -1032,7 +1032,7 @@
         <v>-0.2085895215210745</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.683629409115839</v>
+        <v>0.6836294091158396</v>
       </c>
     </row>
     <row r="23">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.081086936792571</v>
+        <v>-1.873768419387147</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4940296173755153</v>
+        <v>-0.6425942864820644</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8879684398832797</v>
+        <v>-0.8461350818610802</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2250694558764674</v>
+        <v>-0.2462310404270687</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.8663269351059086</v>
+        <v>-0.9349562661652202</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.003059762265441291</v>
+        <v>-0.09303388882048282</v>
       </c>
     </row>
     <row r="24">
@@ -1072,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.667980179922357</v>
+        <v>1.658974932123296</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6694357465485139</v>
+        <v>0.8175423420091883</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.40901235737805</v>
+        <v>1.427810418004764</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2319036127301771</v>
+        <v>0.2116973987598544</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.324975452576414</v>
+        <v>1.306353588035922</v>
       </c>
     </row>
     <row r="25">
@@ -1098,7 +1098,7 @@
         <v>-1</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>1.811624176527931</v>
+        <v>1.81162417652793</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.05306758648249113</v>
@@ -1110,7 +1110,7 @@
         <v>-0.4588490459913013</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.503827708587497</v>
+        <v>1.503827708587498</v>
       </c>
     </row>
     <row r="26">
@@ -1124,11 +1124,11 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.3490602311814818</v>
+        <v>-0.4262344115141432</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>-0.2251849720757694</v>
+        <v>-0.2846625624945457</v>
       </c>
     </row>
     <row r="27">
@@ -1142,11 +1142,11 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>7.584696453300716</v>
+        <v>8.313166889706636</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>10.30600560313385</v>
+        <v>7.599969087755228</v>
       </c>
     </row>
     <row r="28">
@@ -1164,7 +1164,7 @@
         <v>-1.59270258834484</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.5924099995114455</v>
+        <v>0.5924099995114448</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-0.747455107538635</v>
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.197404932586995</v>
+        <v>-3.557100161873414</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.448693485032987</v>
+        <v>-1.29929938963321</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.89855968368522</v>
+        <v>-2.935711397700739</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.919724022414049</v>
+        <v>-2.101772182046366</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.816714032825769</v>
+        <v>-2.655891057563171</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.094314838217937</v>
+        <v>-1.173084323208746</v>
       </c>
     </row>
     <row r="30">
@@ -1213,22 +1213,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05298263309358599</v>
+        <v>-0.2213482842598353</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.281043427904215</v>
+        <v>2.290793413450017</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.421879700980129</v>
+        <v>1.421588289745602</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.054734930360885</v>
+        <v>1.84958894786233</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03774492942829041</v>
+        <v>0.182933461394657</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.713350953711732</v>
+        <v>1.608742522535103</v>
       </c>
     </row>
     <row r="31">
@@ -1242,7 +1242,7 @@
         <v>-0.7088173908117155</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.2636465296266327</v>
+        <v>0.2636465296266324</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.2432478346481111</v>
@@ -1265,22 +1265,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9390634268570578</v>
+        <v>-1</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4291052896913607</v>
+        <v>-0.429072753796869</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6987823085011112</v>
+        <v>-0.675789224606999</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4477458517477915</v>
+        <v>-0.4621251276205167</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7635966353405569</v>
+        <v>-0.7505675718567436</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3118688622774021</v>
+        <v>-0.3425199989718691</v>
       </c>
     </row>
     <row r="33">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4880563772291846</v>
+        <v>0.06524260160305226</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.796420494640582</v>
+        <v>1.758214039608601</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8174992439238764</v>
+        <v>0.8486901910895173</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.20369703825302</v>
+        <v>1.051838537590661</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03574295780458821</v>
+        <v>0.1162711804346971</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9959275275558795</v>
+        <v>0.8904684233883738</v>
       </c>
     </row>
     <row r="34">
@@ -1324,13 +1324,13 @@
         <v>-3.139202880950694</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0.5232819733494487</v>
+        <v>0.5232819733494474</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-0.9639446020308674</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2.85511896519791</v>
+        <v>2.855118965197911</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-1.984892005617309</v>
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.039727729207897</v>
+        <v>-7.110709185036168</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.393926492906046</v>
+        <v>-3.390000103923593</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.633633512674878</v>
+        <v>-4.904408860580429</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.5824801781289866</v>
+        <v>-0.6445543893536155</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.512667345515291</v>
+        <v>-4.683730082507742</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.105737426264615</v>
+        <v>-0.9984605711485522</v>
       </c>
     </row>
     <row r="36">
@@ -1373,22 +1373,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.6678869554025585</v>
+        <v>0.2408976906322574</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.950654090272337</v>
+        <v>3.873081206888338</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.422058809253232</v>
+        <v>2.57473667926228</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.322645195755842</v>
+        <v>6.03430970129229</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.6421325035439032</v>
+        <v>0.7065803646201682</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.925289044659417</v>
+        <v>4.331589076231041</v>
       </c>
     </row>
     <row r="37">
@@ -1402,13 +1402,13 @@
         <v>-0.4399782288213056</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.07334112656608009</v>
+        <v>0.0733411265660799</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.1374716051664481</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.407178780046072</v>
+        <v>0.4071787800460722</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.2807749176922206</v>
@@ -1425,22 +1425,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7434331068013329</v>
+        <v>-0.7364043113309652</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.352727127037009</v>
+        <v>-0.3543827827121934</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5154434690434097</v>
+        <v>-0.5430100447221922</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.06855076311299185</v>
+        <v>-0.07609148651615785</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5266446973929354</v>
+        <v>-0.5354377915660705</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1165939455462105</v>
+        <v>-0.1089141286081378</v>
       </c>
     </row>
     <row r="39">
@@ -1451,22 +1451,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1501548941115346</v>
+        <v>0.08908608120966487</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.8134681961085617</v>
+        <v>0.7898270460055391</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.5091229242720898</v>
+        <v>0.5082731102855764</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.370889119423673</v>
+        <v>1.25906866953757</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1336511258955518</v>
+        <v>0.1528765186892164</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7444376996011649</v>
+        <v>0.8081796533738032</v>
       </c>
     </row>
     <row r="40">
@@ -1490,13 +1490,13 @@
         <v>-2.398760972879146</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6.853619391355199</v>
+        <v>6.853619391355196</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>-3.101071983920201</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>6.104052121090849</v>
+        <v>6.104052121090846</v>
       </c>
     </row>
     <row r="41">
@@ -1507,22 +1507,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-10.00873713609149</v>
+        <v>-9.436936730212238</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.218719333007138</v>
+        <v>-0.8323980065917813</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-7.377338163032622</v>
+        <v>-6.849003350894886</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.575595916578668</v>
+        <v>2.168803146541484</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-6.68176497220761</v>
+        <v>-6.639820294980164</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.673464803462685</v>
+        <v>2.684465487959616</v>
       </c>
     </row>
     <row r="42">
@@ -1533,22 +1533,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.704632905297732</v>
+        <v>0.8583302820711181</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.91059447743925</v>
+        <v>10.45512710196173</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.647858786277012</v>
+        <v>2.805694017455208</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11.39721332041571</v>
+        <v>11.24997574045388</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.2475330824838172</v>
+        <v>0.06598017766085686</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>9.697774876931774</v>
+        <v>9.42472541954297</v>
       </c>
     </row>
     <row r="43">
@@ -1568,13 +1568,13 @@
         <v>-0.193036803937998</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.5515350623395979</v>
+        <v>0.5515350623395977</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.256635170606265</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.5051525619554901</v>
+        <v>0.5051525619554899</v>
       </c>
     </row>
     <row r="44">
@@ -1585,22 +1585,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6441419838114003</v>
+        <v>-0.6303671266966503</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.08072768238569893</v>
+        <v>-0.09253074880426033</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4906698604378443</v>
+        <v>-0.4632891462887499</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1592293620026524</v>
+        <v>0.1171531009887999</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4803744994023991</v>
+        <v>-0.4742910838636775</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1667290279861842</v>
+        <v>0.1742024593165899</v>
       </c>
     </row>
     <row r="45">
@@ -1611,22 +1611,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.11271225862587</v>
+        <v>0.1372491598854096</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.190549135189578</v>
+        <v>1.285815421008854</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2663854140427885</v>
+        <v>0.2811715129066648</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.231781519778581</v>
+        <v>1.178224991129954</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.03387021250559002</v>
+        <v>0.02961665302096967</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9409552207888036</v>
+        <v>0.9836464887054481</v>
       </c>
     </row>
     <row r="46">
@@ -1650,13 +1650,13 @@
         <v>-0.3754346495776495</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1.788391147452678</v>
+        <v>1.788391147452677</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>-0.6511508316614512</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.468434234364428</v>
+        <v>1.468434234364427</v>
       </c>
     </row>
     <row r="47">
@@ -1667,22 +1667,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.589657069304178</v>
+        <v>-1.525070321651815</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.4829766275461324</v>
+        <v>0.4165052673493422</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.18780880308061</v>
+        <v>-1.15201742678616</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.12385032981894</v>
+        <v>1.047478533007953</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.158650945529063</v>
+        <v>-1.126605595791209</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.942426598964258</v>
+        <v>0.9408748237752679</v>
       </c>
     </row>
     <row r="48">
@@ -1693,22 +1693,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.3749373633060804</v>
+        <v>-0.3615368182358573</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.947192720116802</v>
+        <v>1.816781069474942</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.3942769297576832</v>
+        <v>0.4361638194002309</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.639419164308622</v>
+        <v>2.65377697834703</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.1769986800599193</v>
+        <v>-0.1640260184175673</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.989284282758055</v>
+        <v>1.971523277977872</v>
       </c>
     </row>
     <row r="49">
@@ -1728,13 +1728,13 @@
         <v>-0.1419117369035789</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.6759996560879582</v>
+        <v>0.6759996560879579</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>-0.2805748045793905</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.632734580547534</v>
+        <v>0.6327345805475337</v>
       </c>
     </row>
     <row r="50">
@@ -1745,22 +1745,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6615537643130481</v>
+        <v>-0.6434748135165386</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1861884675751053</v>
+        <v>0.1719501090901592</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3806934045076823</v>
+        <v>-0.3818470195618709</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.3492982604858635</v>
+        <v>0.3279542551940676</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4519261547471995</v>
+        <v>-0.434485328580804</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3481157395535848</v>
+        <v>0.3547977841633347</v>
       </c>
     </row>
     <row r="51">
@@ -1771,22 +1771,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2267425501092226</v>
+        <v>-0.1842289313304937</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.166964993250593</v>
+        <v>1.129544159769466</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1753576396747634</v>
+        <v>0.1963420897481645</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.213872691054668</v>
+        <v>1.205513985202178</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.09155191511889457</v>
+        <v>-0.08320815670480111</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.9539570003553994</v>
+        <v>0.9506387202862332</v>
       </c>
     </row>
     <row r="52">
